--- a/overlappingSites.xlsx
+++ b/overlappingSites.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
   <si>
     <t xml:space="preserve">siteGroup</t>
   </si>
@@ -44,6 +44,9 @@
     <t xml:space="preserve">relAbund</t>
   </si>
   <si>
+    <t xml:space="preserve">miseqid</t>
+  </si>
+  <si>
     <t xml:space="preserve">PIN25</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
     <t xml:space="preserve">Y4</t>
   </si>
   <si>
+    <t xml:space="preserve">220303_MN01490_0064_A000H3T7YL</t>
+  </si>
+  <si>
     <t xml:space="preserve">GTSP4730</t>
   </si>
   <si>
@@ -74,9 +80,15 @@
     <t xml:space="preserve">GTSP4724</t>
   </si>
   <si>
+    <t xml:space="preserve">220324_MN01490_0069_A000H3VTNG / 230126_MN01490_0103_A000H5CH25</t>
+  </si>
+  <si>
     <t xml:space="preserve">GTSP4733</t>
   </si>
   <si>
+    <t xml:space="preserve">220324_MN01490_0069_A000H3VTNG / 230301_MN01490_0113_A000H5GLT7</t>
+  </si>
+  <si>
     <t xml:space="preserve">PIN32</t>
   </si>
   <si>
@@ -86,6 +98,9 @@
     <t xml:space="preserve">W8</t>
   </si>
   <si>
+    <t xml:space="preserve">220405_MN01490_0071_A000H3VTVJ / 230301_MN01490_0113_A000H5GLT7</t>
+  </si>
+  <si>
     <t xml:space="preserve">PIN27</t>
   </si>
   <si>
@@ -95,6 +110,9 @@
     <t xml:space="preserve">W2</t>
   </si>
   <si>
+    <t xml:space="preserve">220311_MN01490_0065_A000H3T5M3</t>
+  </si>
+  <si>
     <t xml:space="preserve">PIN33</t>
   </si>
   <si>
@@ -104,9 +122,15 @@
     <t xml:space="preserve">D1</t>
   </si>
   <si>
+    <t xml:space="preserve">220405_MN01490_0071_A000H3VTVJ / 230126_MN01490_0103_A000H5CH25</t>
+  </si>
+  <si>
     <t xml:space="preserve">GTSP4708</t>
   </si>
   <si>
+    <t xml:space="preserve">220405_MN01490_0071_A000H3VTVJ</t>
+  </si>
+  <si>
     <t xml:space="preserve">PIN26</t>
   </si>
   <si>
@@ -125,9 +149,15 @@
     <t xml:space="preserve">Y15</t>
   </si>
   <si>
+    <t xml:space="preserve">220311_MN01490_0065_A000H3T5M3 / 230301_MN01490_0113_A000H5GLT7</t>
+  </si>
+  <si>
     <t xml:space="preserve">GTSP4739</t>
   </si>
   <si>
+    <t xml:space="preserve">220324_MN01490_0069_A000H3VTNG</t>
+  </si>
+  <si>
     <t xml:space="preserve">chr1+156668739</t>
   </si>
   <si>
@@ -140,6 +170,9 @@
     <t xml:space="preserve">GTSP4701</t>
   </si>
   <si>
+    <t xml:space="preserve">220415_MN01490_0073_A000H3M2YJ / 230301_MN01490_0113_A000H5GLT7</t>
+  </si>
+  <si>
     <t xml:space="preserve">chr1+181509087</t>
   </si>
   <si>
@@ -149,6 +182,9 @@
     <t xml:space="preserve">GTSP4718</t>
   </si>
   <si>
+    <t xml:space="preserve">220415_MN01490_0073_A000H3M2YJ</t>
+  </si>
+  <si>
     <t xml:space="preserve">chr1+231273735</t>
   </si>
   <si>
@@ -182,6 +218,9 @@
     <t xml:space="preserve">GTSP4728</t>
   </si>
   <si>
+    <t xml:space="preserve">220429_M03249_0256_000000000-GC2GN</t>
+  </si>
+  <si>
     <t xml:space="preserve">chr1-6038407</t>
   </si>
   <si>
@@ -236,6 +275,9 @@
     <t xml:space="preserve">GTSP4711</t>
   </si>
   <si>
+    <t xml:space="preserve">220303_MN01490_0064_A000H3T7YL / 230301_MN01490_0113_A000H5GLT7</t>
+  </si>
+  <si>
     <t xml:space="preserve">chr3-9777628</t>
   </si>
   <si>
@@ -305,6 +347,9 @@
     <t xml:space="preserve">D0</t>
   </si>
   <si>
+    <t xml:space="preserve">210124_M03249_0147_000000000-JFLJB / 230301_MN01490_0113_A000H5GLT7</t>
+  </si>
+  <si>
     <t xml:space="preserve">chr7-118313010</t>
   </si>
   <si>
@@ -444,6 +489,9 @@
   </si>
   <si>
     <t xml:space="preserve">GTSP4735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">220415_MN01490_0073_A000H3M2YJ / 230126_MN01490_0103_A000H5CH25</t>
   </si>
   <si>
     <t xml:space="preserve">GTSP4742</t>
@@ -851,28 +899,31 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -883,28 +934,31 @@
       <c r="J2" t="n">
         <v>0.862068965517241</v>
       </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -915,28 +969,31 @@
       <c r="J3" t="n">
         <v>1.05263157894737</v>
       </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" t="n">
         <v>2</v>
@@ -947,28 +1004,31 @@
       <c r="J4" t="n">
         <v>0.892857142857143</v>
       </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -979,28 +1039,31 @@
       <c r="J5" t="n">
         <v>0.574712643678161</v>
       </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -1011,28 +1074,31 @@
       <c r="J6" t="n">
         <v>0.290697674418605</v>
       </c>
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -1043,28 +1109,31 @@
       <c r="J7" t="n">
         <v>0.62111801242236</v>
       </c>
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -1075,28 +1144,31 @@
       <c r="J8" t="n">
         <v>4.59770114942529</v>
       </c>
+      <c r="K8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H9" t="n">
         <v>2</v>
@@ -1106,6 +1178,9 @@
       </c>
       <c r="J9" t="n">
         <v>1.78571428571429</v>
+      </c>
+      <c r="K9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10">
@@ -1113,22 +1188,22 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -1138,6 +1213,9 @@
       </c>
       <c r="J10" t="n">
         <v>1.11111111111111</v>
+      </c>
+      <c r="K10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -1145,22 +1223,22 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -1170,6 +1248,9 @@
       </c>
       <c r="J11" t="n">
         <v>0.574712643678161</v>
+      </c>
+      <c r="K11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12">
@@ -1177,22 +1258,22 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H12" t="n">
         <v>2</v>
@@ -1202,6 +1283,9 @@
       </c>
       <c r="J12" t="n">
         <v>0.458715596330275</v>
+      </c>
+      <c r="K12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="13">
@@ -1209,22 +1293,22 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H13" t="n">
         <v>39</v>
@@ -1234,6 +1318,9 @@
       </c>
       <c r="J13" t="n">
         <v>1.71428571428571</v>
+      </c>
+      <c r="K13" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14">
@@ -1241,22 +1328,22 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -1266,6 +1353,9 @@
       </c>
       <c r="J14" t="n">
         <v>2.04081632653061</v>
+      </c>
+      <c r="K14" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15">
@@ -1273,22 +1363,22 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1298,6 +1388,9 @@
       </c>
       <c r="J15" t="n">
         <v>0.641025641025641</v>
+      </c>
+      <c r="K15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16">
@@ -1305,22 +1398,22 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1330,6 +1423,9 @@
       </c>
       <c r="J16" t="n">
         <v>2.04081632653061</v>
+      </c>
+      <c r="K16" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17">
@@ -1337,22 +1433,22 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1362,6 +1458,9 @@
       </c>
       <c r="J17" t="n">
         <v>0.628930817610063</v>
+      </c>
+      <c r="K17" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1369,22 +1468,22 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H18" t="n">
         <v>798</v>
@@ -1394,6 +1493,9 @@
       </c>
       <c r="J18" t="n">
         <v>0.21978021978022</v>
+      </c>
+      <c r="K18" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19">
@@ -1401,22 +1503,22 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F19" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G19" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="H19" t="n">
         <v>2</v>
@@ -1427,28 +1529,29 @@
       <c r="J19" t="n">
         <v>0.0397851601352695</v>
       </c>
+      <c r="K19"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1458,6 +1561,9 @@
       </c>
       <c r="J20" t="n">
         <v>11.1111111111111</v>
+      </c>
+      <c r="K20" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -1465,22 +1571,22 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -1490,6 +1596,9 @@
       </c>
       <c r="J21" t="n">
         <v>0.403225806451613</v>
+      </c>
+      <c r="K21" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="22">
@@ -1497,22 +1606,22 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -1522,6 +1631,9 @@
       </c>
       <c r="J22" t="n">
         <v>0.892857142857143</v>
+      </c>
+      <c r="K22" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="23">
@@ -1529,22 +1641,22 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -1554,6 +1666,9 @@
       </c>
       <c r="J23" t="n">
         <v>0.641025641025641</v>
+      </c>
+      <c r="K23" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="24">
@@ -1561,22 +1676,22 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -1586,6 +1701,9 @@
       </c>
       <c r="J24" t="n">
         <v>0.446428571428571</v>
+      </c>
+      <c r="K24" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="25">
@@ -1593,22 +1711,22 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -1618,6 +1736,9 @@
       </c>
       <c r="J25" t="n">
         <v>0.628930817610063</v>
+      </c>
+      <c r="K25" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="26">
@@ -1625,22 +1746,22 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E26" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H26" t="n">
         <v>1933</v>
@@ -1650,6 +1771,9 @@
       </c>
       <c r="J26" t="n">
         <v>0.930232558139535</v>
+      </c>
+      <c r="K26" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="27">
@@ -1657,22 +1781,22 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E27" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H27" t="n">
         <v>2594</v>
@@ -1682,6 +1806,9 @@
       </c>
       <c r="J27" t="n">
         <v>1.40845070422535</v>
+      </c>
+      <c r="K27" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="28">
@@ -1689,22 +1816,22 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" t="s">
         <v>62</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
         <v>63</v>
-      </c>
-      <c r="F28" t="s">
-        <v>50</v>
-      </c>
-      <c r="G28" t="s">
-        <v>51</v>
       </c>
       <c r="H28" t="n">
         <v>4</v>
@@ -1715,28 +1842,29 @@
       <c r="J28" t="n">
         <v>0.0745434215430488</v>
       </c>
+      <c r="K28"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E29" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G29" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="H29" t="n">
         <v>4</v>
@@ -1747,28 +1875,29 @@
       <c r="J29" t="n">
         <v>0.0513808606294155</v>
       </c>
+      <c r="K29"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E30" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H30" t="n">
         <v>57</v>
@@ -1779,28 +1908,29 @@
       <c r="J30" t="n">
         <v>1.2119923453115</v>
       </c>
+      <c r="K30"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="E31" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G31" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H31" t="n">
         <v>10</v>
@@ -1810,6 +1940,9 @@
       </c>
       <c r="J31" t="n">
         <v>0.641025641025641</v>
+      </c>
+      <c r="K31" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="32">
@@ -1817,22 +1950,22 @@
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E32" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
@@ -1842,6 +1975,9 @@
       </c>
       <c r="J32" t="n">
         <v>0.574712643678161</v>
+      </c>
+      <c r="K32" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="33">
@@ -1849,22 +1985,22 @@
         <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E33" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G33" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
@@ -1874,6 +2010,9 @@
       </c>
       <c r="J33" t="n">
         <v>0.561797752808989</v>
+      </c>
+      <c r="K33" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="34">
@@ -1881,22 +2020,22 @@
         <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E34" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G34" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -1906,6 +2045,9 @@
       </c>
       <c r="J34" t="n">
         <v>0.578034682080925</v>
+      </c>
+      <c r="K34" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="35">
@@ -1913,22 +2055,22 @@
         <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E35" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G35" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H35" t="n">
         <v>2</v>
@@ -1939,28 +2081,31 @@
       <c r="J35" t="n">
         <v>0.581395348837209</v>
       </c>
+      <c r="K35" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D36" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="E36" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F36" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G36" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="H36" t="n">
         <v>4</v>
@@ -1971,28 +2116,29 @@
       <c r="J36" t="n">
         <v>0.0513808606294155</v>
       </c>
+      <c r="K36"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D37" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="E37" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F37" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G37" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="H37" t="n">
         <v>5</v>
@@ -2003,28 +2149,29 @@
       <c r="J37" t="n">
         <v>0.0642260757867694</v>
       </c>
+      <c r="K37"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" t="s">
         <v>76</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
+        <v>62</v>
+      </c>
+      <c r="G38" t="s">
         <v>63</v>
-      </c>
-      <c r="F38" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" t="s">
-        <v>51</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
@@ -2035,28 +2182,29 @@
       <c r="J38" t="n">
         <v>0.0186358553857622</v>
       </c>
+      <c r="K38"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D39" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E39" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G39" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
@@ -2067,28 +2215,29 @@
       <c r="J39" t="n">
         <v>0.0128452151573539</v>
       </c>
+      <c r="K39"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="E40" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G40" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H40" t="n">
         <v>32392</v>
@@ -2098,6 +2247,9 @@
       </c>
       <c r="J40" t="n">
         <v>3.6697247706422</v>
+      </c>
+      <c r="K40" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="41">
@@ -2105,22 +2257,22 @@
         <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="E41" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H41" t="n">
         <v>6001</v>
@@ -2130,6 +2282,9 @@
       </c>
       <c r="J41" t="n">
         <v>2.28571428571429</v>
+      </c>
+      <c r="K41" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="42">
@@ -2137,22 +2292,22 @@
         <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E42" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G42" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H42" t="n">
         <v>2971</v>
@@ -2162,6 +2317,9 @@
       </c>
       <c r="J42" t="n">
         <v>0.458715596330275</v>
+      </c>
+      <c r="K42" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="43">
@@ -2169,22 +2327,22 @@
         <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E43" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H43" t="n">
         <v>4496</v>
@@ -2194,6 +2352,9 @@
       </c>
       <c r="J43" t="n">
         <v>1.14285714285714</v>
+      </c>
+      <c r="K43" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="44">
@@ -2201,22 +2362,22 @@
         <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E44" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H44" t="n">
         <v>20428</v>
@@ -2226,6 +2387,9 @@
       </c>
       <c r="J44" t="n">
         <v>8.37209302325581</v>
+      </c>
+      <c r="K44" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="45">
@@ -2233,22 +2397,22 @@
         <v>19</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E45" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H45" t="n">
         <v>8608</v>
@@ -2258,6 +2422,9 @@
       </c>
       <c r="J45" t="n">
         <v>1.40845070422535</v>
+      </c>
+      <c r="K45" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="46">
@@ -2265,22 +2432,22 @@
         <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E46" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G46" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H46" t="n">
         <v>116</v>
@@ -2290,6 +2457,9 @@
       </c>
       <c r="J46" t="n">
         <v>0.24390243902439</v>
+      </c>
+      <c r="K46" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="47">
@@ -2297,22 +2467,22 @@
         <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E47" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G47" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H47" t="n">
         <v>54</v>
@@ -2322,6 +2492,9 @@
       </c>
       <c r="J47" t="n">
         <v>0.561797752808989</v>
+      </c>
+      <c r="K47" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="48">
@@ -2329,22 +2502,22 @@
         <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="E48" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G48" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H48" t="n">
         <v>1</v>
@@ -2354,6 +2527,9 @@
       </c>
       <c r="J48" t="n">
         <v>0.290697674418605</v>
+      </c>
+      <c r="K48" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="49">
@@ -2361,22 +2537,22 @@
         <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="E49" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G49" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H49" t="n">
         <v>1</v>
@@ -2386,6 +2562,9 @@
       </c>
       <c r="J49" t="n">
         <v>1.14942528735632</v>
+      </c>
+      <c r="K49" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="50">
@@ -2393,22 +2572,22 @@
         <v>22</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H50" t="n">
         <v>1</v>
@@ -2418,6 +2597,9 @@
       </c>
       <c r="J50" t="n">
         <v>0.862068965517241</v>
+      </c>
+      <c r="K50" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="51">
@@ -2425,22 +2607,22 @@
         <v>22</v>
       </c>
       <c r="B51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" t="s">
+        <v>100</v>
+      </c>
+      <c r="E51" t="s">
+        <v>101</v>
+      </c>
+      <c r="F51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" t="s">
         <v>31</v>
-      </c>
-      <c r="C51" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s">
-        <v>86</v>
-      </c>
-      <c r="E51" t="s">
-        <v>87</v>
-      </c>
-      <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>26</v>
       </c>
       <c r="H51" t="n">
         <v>1</v>
@@ -2450,6 +2632,9 @@
       </c>
       <c r="J51" t="n">
         <v>0.134589502018843</v>
+      </c>
+      <c r="K51" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="52">
@@ -2457,22 +2642,22 @@
         <v>22</v>
       </c>
       <c r="B52" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E52" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G52" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H52" t="n">
         <v>1</v>
@@ -2482,6 +2667,9 @@
       </c>
       <c r="J52" t="n">
         <v>1.11111111111111</v>
+      </c>
+      <c r="K52" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="53">
@@ -2489,22 +2677,22 @@
         <v>22</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E53" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G53" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H53" t="n">
         <v>1</v>
@@ -2514,6 +2702,9 @@
       </c>
       <c r="J53" t="n">
         <v>0.290697674418605</v>
+      </c>
+      <c r="K53" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="54">
@@ -2521,22 +2712,22 @@
         <v>22</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="E54" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H54" t="n">
         <v>1</v>
@@ -2546,6 +2737,9 @@
       </c>
       <c r="J54" t="n">
         <v>3.44827586206897</v>
+      </c>
+      <c r="K54" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="55">
@@ -2553,22 +2747,22 @@
         <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D55" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="E55" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G55" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H55" t="n">
         <v>1</v>
@@ -2578,6 +2772,9 @@
       </c>
       <c r="J55" t="n">
         <v>1.14942528735632</v>
+      </c>
+      <c r="K55" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="56">
@@ -2585,22 +2782,22 @@
         <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="E56" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H56" t="n">
         <v>997</v>
@@ -2610,6 +2807,9 @@
       </c>
       <c r="J56" t="n">
         <v>0.930232558139535</v>
+      </c>
+      <c r="K56" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="57">
@@ -2617,22 +2817,22 @@
         <v>23</v>
       </c>
       <c r="B57" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="E57" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G57" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H57" t="n">
         <v>169</v>
@@ -2642,6 +2842,9 @@
       </c>
       <c r="J57" t="n">
         <v>2.11267605633803</v>
+      </c>
+      <c r="K57" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="58">
@@ -2649,22 +2852,22 @@
         <v>24</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="E58" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G58" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H58" t="n">
         <v>1</v>
@@ -2674,6 +2877,9 @@
       </c>
       <c r="J58" t="n">
         <v>1.88679245283019</v>
+      </c>
+      <c r="K58" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="59">
@@ -2681,22 +2887,22 @@
         <v>24</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D59" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="E59" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H59" t="n">
         <v>1</v>
@@ -2706,6 +2912,9 @@
       </c>
       <c r="J59" t="n">
         <v>2</v>
+      </c>
+      <c r="K59" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="60">
@@ -2713,22 +2922,22 @@
         <v>24</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D60" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="E60" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H60" t="n">
         <v>2</v>
@@ -2738,6 +2947,9 @@
       </c>
       <c r="J60" t="n">
         <v>2.29885057471264</v>
+      </c>
+      <c r="K60" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="61">
@@ -2745,22 +2957,22 @@
         <v>25</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="E61" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G61" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="H61" t="n">
         <v>36</v>
@@ -2770,6 +2982,9 @@
       </c>
       <c r="J61" t="n">
         <v>0.0651465798045603</v>
+      </c>
+      <c r="K61" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="62">
@@ -2777,22 +2992,22 @@
         <v>25</v>
       </c>
       <c r="B62" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D62" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E62" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G62" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H62" t="n">
         <v>2</v>
@@ -2802,6 +3017,9 @@
       </c>
       <c r="J62" t="n">
         <v>0.21505376344086</v>
+      </c>
+      <c r="K62" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="63">
@@ -2809,22 +3027,22 @@
         <v>26</v>
       </c>
       <c r="B63" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" t="s">
+        <v>114</v>
+      </c>
+      <c r="E63" t="s">
+        <v>101</v>
+      </c>
+      <c r="F63" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" t="s">
         <v>31</v>
-      </c>
-      <c r="C63" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" t="s">
-        <v>99</v>
-      </c>
-      <c r="E63" t="s">
-        <v>87</v>
-      </c>
-      <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
-        <v>26</v>
       </c>
       <c r="H63" t="n">
         <v>8</v>
@@ -2834,6 +3052,9 @@
       </c>
       <c r="J63" t="n">
         <v>0.134589502018843</v>
+      </c>
+      <c r="K63" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="64">
@@ -2841,22 +3062,22 @@
         <v>26</v>
       </c>
       <c r="B64" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C64" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D64" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="E64" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="F64" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G64" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="H64" t="n">
         <v>1</v>
@@ -2867,28 +3088,29 @@
       <c r="J64" t="n">
         <v>0.0109361329833771</v>
       </c>
+      <c r="K64"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>27</v>
       </c>
       <c r="B65" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="E65" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G65" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="H65" t="n">
         <v>435</v>
@@ -2898,6 +3120,9 @@
       </c>
       <c r="J65" t="n">
         <v>0.0651465798045603</v>
+      </c>
+      <c r="K65" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="66">
@@ -2905,22 +3130,22 @@
         <v>27</v>
       </c>
       <c r="B66" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D66" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="E66" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G66" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="H66" t="n">
         <v>1</v>
@@ -2930,6 +3155,9 @@
       </c>
       <c r="J66" t="n">
         <v>0.0651465798045603</v>
+      </c>
+      <c r="K66" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="67">
@@ -2937,22 +3165,22 @@
         <v>28</v>
       </c>
       <c r="B67" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D67" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="E67" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G67" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H67" t="n">
         <v>565</v>
@@ -2962,6 +3190,9 @@
       </c>
       <c r="J67" t="n">
         <v>0.403225806451613</v>
+      </c>
+      <c r="K67" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="68">
@@ -2969,22 +3200,22 @@
         <v>28</v>
       </c>
       <c r="B68" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D68" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="E68" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G68" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H68" t="n">
         <v>7247</v>
@@ -2994,6 +3225,9 @@
       </c>
       <c r="J68" t="n">
         <v>1.3953488372093</v>
+      </c>
+      <c r="K68" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="69">
@@ -3001,22 +3235,22 @@
         <v>28</v>
       </c>
       <c r="B69" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D69" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="E69" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H69" t="n">
         <v>36</v>
@@ -3026,6 +3260,9 @@
       </c>
       <c r="J69" t="n">
         <v>1.40845070422535</v>
+      </c>
+      <c r="K69" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="70">
@@ -3033,22 +3270,22 @@
         <v>29</v>
       </c>
       <c r="B70" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D70" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="E70" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G70" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H70" t="n">
         <v>4751</v>
@@ -3058,6 +3295,9 @@
       </c>
       <c r="J70" t="n">
         <v>1.37614678899083</v>
+      </c>
+      <c r="K70" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="71">
@@ -3065,22 +3305,22 @@
         <v>29</v>
       </c>
       <c r="B71" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D71" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="E71" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H71" t="n">
         <v>10883</v>
@@ -3090,6 +3330,9 @@
       </c>
       <c r="J71" t="n">
         <v>0.571428571428571</v>
+      </c>
+      <c r="K71" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="72">
@@ -3097,22 +3340,22 @@
         <v>30</v>
       </c>
       <c r="B72" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="E72" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G72" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H72" t="n">
         <v>5</v>
@@ -3122,6 +3365,9 @@
       </c>
       <c r="J72" t="n">
         <v>0.458715596330275</v>
+      </c>
+      <c r="K72" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="73">
@@ -3129,22 +3375,22 @@
         <v>30</v>
       </c>
       <c r="B73" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D73" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E73" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H73" t="n">
         <v>667</v>
@@ -3154,6 +3400,9 @@
       </c>
       <c r="J73" t="n">
         <v>0.458715596330275</v>
+      </c>
+      <c r="K73" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="74">
@@ -3161,22 +3410,22 @@
         <v>31</v>
       </c>
       <c r="B74" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D74" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="E74" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H74" t="n">
         <v>62</v>
@@ -3186,6 +3435,9 @@
       </c>
       <c r="J74" t="n">
         <v>0.458715596330275</v>
+      </c>
+      <c r="K74" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="75">
@@ -3193,22 +3445,22 @@
         <v>31</v>
       </c>
       <c r="B75" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="E75" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H75" t="n">
         <v>14786</v>
@@ -3218,6 +3470,9 @@
       </c>
       <c r="J75" t="n">
         <v>3.42857142857143</v>
+      </c>
+      <c r="K75" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="76">
@@ -3225,22 +3480,22 @@
         <v>32</v>
       </c>
       <c r="B76" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="E76" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H76" t="n">
         <v>3736</v>
@@ -3250,6 +3505,9 @@
       </c>
       <c r="J76" t="n">
         <v>0.458715596330275</v>
+      </c>
+      <c r="K76" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="77">
@@ -3257,22 +3515,22 @@
         <v>32</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C77" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="E77" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F77" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G77" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="H77" t="n">
         <v>5</v>
@@ -3283,28 +3541,29 @@
       <c r="J77" t="n">
         <v>0.0642260757867694</v>
       </c>
+      <c r="K77"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>33</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="E78" t="s">
+        <v>76</v>
+      </c>
+      <c r="F78" t="s">
+        <v>62</v>
+      </c>
+      <c r="G78" t="s">
         <v>63</v>
-      </c>
-      <c r="F78" t="s">
-        <v>50</v>
-      </c>
-      <c r="G78" t="s">
-        <v>51</v>
       </c>
       <c r="H78" t="n">
         <v>5</v>
@@ -3315,28 +3574,29 @@
       <c r="J78" t="n">
         <v>0.093179276928811</v>
       </c>
+      <c r="K78"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>33</v>
       </c>
       <c r="B79" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C79" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="E79" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F79" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G79" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="H79" t="n">
         <v>1</v>
@@ -3347,28 +3607,29 @@
       <c r="J79" t="n">
         <v>0.0128452151573539</v>
       </c>
+      <c r="K79"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>34</v>
       </c>
       <c r="B80" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="E80" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G80" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H80" t="n">
         <v>4514</v>
@@ -3378,6 +3639,9 @@
       </c>
       <c r="J80" t="n">
         <v>0.403225806451613</v>
+      </c>
+      <c r="K80" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="81">
@@ -3385,22 +3649,22 @@
         <v>34</v>
       </c>
       <c r="B81" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D81" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="E81" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G81" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H81" t="n">
         <v>25418</v>
@@ -3410,6 +3674,9 @@
       </c>
       <c r="J81" t="n">
         <v>5.58139534883721</v>
+      </c>
+      <c r="K81" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="82">
@@ -3417,22 +3684,22 @@
         <v>34</v>
       </c>
       <c r="B82" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D82" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="E82" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G82" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H82" t="n">
         <v>5574</v>
@@ -3442,6 +3709,9 @@
       </c>
       <c r="J82" t="n">
         <v>3.52112676056338</v>
+      </c>
+      <c r="K82" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="83">
@@ -3449,22 +3719,22 @@
         <v>35</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D83" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="E83" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G83" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H83" t="n">
         <v>6</v>
@@ -3474,6 +3744,9 @@
       </c>
       <c r="J83" t="n">
         <v>0.217391304347826</v>
+      </c>
+      <c r="K83" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="84">
@@ -3481,22 +3754,22 @@
         <v>35</v>
       </c>
       <c r="B84" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D84" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="E84" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G84" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="H84" t="n">
         <v>365</v>
@@ -3506,6 +3779,9 @@
       </c>
       <c r="J84" t="n">
         <v>0.0651465798045603</v>
+      </c>
+      <c r="K84" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="85">
@@ -3513,22 +3789,22 @@
         <v>36</v>
       </c>
       <c r="B85" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D85" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="E85" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G85" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H85" t="n">
         <v>376</v>
@@ -3538,6 +3814,9 @@
       </c>
       <c r="J85" t="n">
         <v>1.3953488372093</v>
+      </c>
+      <c r="K85" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="86">
@@ -3545,22 +3824,22 @@
         <v>36</v>
       </c>
       <c r="B86" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D86" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="E86" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H86" t="n">
         <v>1</v>
@@ -3570,6 +3849,9 @@
       </c>
       <c r="J86" t="n">
         <v>0.704225352112676</v>
+      </c>
+      <c r="K86" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="87">
@@ -3577,22 +3859,22 @@
         <v>37</v>
       </c>
       <c r="B87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D87" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="E87" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G87" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H87" t="n">
         <v>1</v>
@@ -3602,6 +3884,9 @@
       </c>
       <c r="J87" t="n">
         <v>0.641025641025641</v>
+      </c>
+      <c r="K87" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="88">
@@ -3609,22 +3894,22 @@
         <v>37</v>
       </c>
       <c r="B88" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D88" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="E88" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G88" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H88" t="n">
         <v>1</v>
@@ -3634,6 +3919,9 @@
       </c>
       <c r="J88" t="n">
         <v>1.11111111111111</v>
+      </c>
+      <c r="K88" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="89">
@@ -3641,22 +3929,22 @@
         <v>37</v>
       </c>
       <c r="B89" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D89" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="E89" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G89" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H89" t="n">
         <v>1</v>
@@ -3666,6 +3954,9 @@
       </c>
       <c r="J89" t="n">
         <v>0.290697674418605</v>
+      </c>
+      <c r="K89" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="90">
@@ -3673,22 +3964,22 @@
         <v>37</v>
       </c>
       <c r="B90" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D90" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="E90" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G90" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H90" t="n">
         <v>2</v>
@@ -3698,6 +3989,9 @@
       </c>
       <c r="J90" t="n">
         <v>1.14942528735632</v>
+      </c>
+      <c r="K90" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="91">
@@ -3705,22 +3999,22 @@
         <v>38</v>
       </c>
       <c r="B91" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D91" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="E91" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G91" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="H91" t="n">
         <v>159</v>
@@ -3730,6 +4024,9 @@
       </c>
       <c r="J91" t="n">
         <v>0.0651465798045603</v>
+      </c>
+      <c r="K91" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="92">
@@ -3737,22 +4034,22 @@
         <v>38</v>
       </c>
       <c r="B92" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C92" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D92" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="E92" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F92" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G92" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="H92" t="n">
         <v>8</v>
@@ -3763,28 +4060,29 @@
       <c r="J92" t="n">
         <v>0.102761721258831</v>
       </c>
+      <c r="K92"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>39</v>
       </c>
       <c r="B93" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D93" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="E93" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="F93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G93" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H93" t="n">
         <v>4417</v>
@@ -3794,6 +4092,9 @@
       </c>
       <c r="J93" t="n">
         <v>0.403225806451613</v>
+      </c>
+      <c r="K93" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="94">
@@ -3801,22 +4102,22 @@
         <v>39</v>
       </c>
       <c r="B94" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D94" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="E94" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G94" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H94" t="n">
         <v>314</v>
@@ -3826,6 +4127,9 @@
       </c>
       <c r="J94" t="n">
         <v>0.465116279069767</v>
+      </c>
+      <c r="K94" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="95">
@@ -3833,22 +4137,22 @@
         <v>40</v>
       </c>
       <c r="B95" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D95" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E95" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G95" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H95" t="n">
         <v>2</v>
@@ -3858,6 +4162,9 @@
       </c>
       <c r="J95" t="n">
         <v>0.24390243902439</v>
+      </c>
+      <c r="K95" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="96">
@@ -3865,22 +4172,22 @@
         <v>40</v>
       </c>
       <c r="B96" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C96" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D96" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E96" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F96" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G96" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="H96" t="n">
         <v>16</v>
@@ -3891,28 +4198,29 @@
       <c r="J96" t="n">
         <v>0.365046771617614</v>
       </c>
+      <c r="K96"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>41</v>
       </c>
       <c r="B97" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D97" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="E97" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G97" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H97" t="n">
         <v>2802</v>
@@ -3922,6 +4230,9 @@
       </c>
       <c r="J97" t="n">
         <v>1.8348623853211</v>
+      </c>
+      <c r="K97" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="98">
@@ -3929,22 +4240,22 @@
         <v>41</v>
       </c>
       <c r="B98" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D98" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="E98" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H98" t="n">
         <v>235</v>
@@ -3954,6 +4265,9 @@
       </c>
       <c r="J98" t="n">
         <v>1.14285714285714</v>
+      </c>
+      <c r="K98" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="99">
@@ -3961,22 +4275,22 @@
         <v>42</v>
       </c>
       <c r="B99" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D99" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="E99" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="F99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G99" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H99" t="n">
         <v>5203</v>
@@ -3986,6 +4300,9 @@
       </c>
       <c r="J99" t="n">
         <v>0.806451612903226</v>
+      </c>
+      <c r="K99" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="100">
@@ -3993,22 +4310,22 @@
         <v>42</v>
       </c>
       <c r="B100" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D100" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="E100" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G100" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H100" t="n">
         <v>3699</v>
@@ -4018,6 +4335,9 @@
       </c>
       <c r="J100" t="n">
         <v>0.930232558139535</v>
+      </c>
+      <c r="K100" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="101">
@@ -4025,22 +4345,22 @@
         <v>43</v>
       </c>
       <c r="B101" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C101" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D101" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="E101" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F101" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G101" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="H101" t="n">
         <v>4</v>
@@ -4051,28 +4371,29 @@
       <c r="J101" t="n">
         <v>0.0795703202705391</v>
       </c>
+      <c r="K101"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>43</v>
       </c>
       <c r="B102" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D102" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="E102" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H102" t="n">
         <v>633</v>
@@ -4082,6 +4403,9 @@
       </c>
       <c r="J102" t="n">
         <v>0.641025641025641</v>
+      </c>
+      <c r="K102" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="103">
@@ -4089,22 +4413,22 @@
         <v>44</v>
       </c>
       <c r="B103" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D103" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="E103" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="F103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G103" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H103" t="n">
         <v>2885</v>
@@ -4114,6 +4438,9 @@
       </c>
       <c r="J103" t="n">
         <v>0.403225806451613</v>
+      </c>
+      <c r="K103" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="104">
@@ -4121,22 +4448,22 @@
         <v>44</v>
       </c>
       <c r="B104" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D104" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="E104" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G104" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H104" t="n">
         <v>1305</v>
@@ -4146,6 +4473,9 @@
       </c>
       <c r="J104" t="n">
         <v>2.32558139534884</v>
+      </c>
+      <c r="K104" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="105">
@@ -4153,22 +4483,22 @@
         <v>45</v>
       </c>
       <c r="B105" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D105" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="E105" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G105" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H105" t="n">
         <v>396</v>
@@ -4178,6 +4508,9 @@
       </c>
       <c r="J105" t="n">
         <v>0.465116279069767</v>
+      </c>
+      <c r="K105" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="106">
@@ -4185,22 +4518,22 @@
         <v>45</v>
       </c>
       <c r="B106" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D106" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="E106" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="F106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G106" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H106" t="n">
         <v>2166</v>
@@ -4210,6 +4543,9 @@
       </c>
       <c r="J106" t="n">
         <v>2.11267605633803</v>
+      </c>
+      <c r="K106" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="107">
@@ -4217,22 +4553,22 @@
         <v>46</v>
       </c>
       <c r="B107" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D107" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="E107" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="F107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G107" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H107" t="n">
         <v>116</v>
@@ -4242,6 +4578,9 @@
       </c>
       <c r="J107" t="n">
         <v>2.08333333333333</v>
+      </c>
+      <c r="K107" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="108">
@@ -4249,22 +4588,22 @@
         <v>46</v>
       </c>
       <c r="B108" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D108" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="E108" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="F108" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G108" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H108" t="n">
         <v>34312</v>
@@ -4274,6 +4613,9 @@
       </c>
       <c r="J108" t="n">
         <v>7.27272727272727</v>
+      </c>
+      <c r="K108" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="109">
@@ -4281,22 +4623,22 @@
         <v>47</v>
       </c>
       <c r="B109" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D109" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="E109" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G109" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H109" t="n">
         <v>5</v>
@@ -4306,6 +4648,9 @@
       </c>
       <c r="J109" t="n">
         <v>0.465116279069767</v>
+      </c>
+      <c r="K109" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="110">
@@ -4313,22 +4658,22 @@
         <v>47</v>
       </c>
       <c r="B110" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D110" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="E110" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="F110" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G110" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H110" t="n">
         <v>98</v>
@@ -4338,6 +4683,9 @@
       </c>
       <c r="J110" t="n">
         <v>2.11267605633803</v>
+      </c>
+      <c r="K110" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="111">
@@ -4345,22 +4693,22 @@
         <v>48</v>
       </c>
       <c r="B111" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D111" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="E111" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F111" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G111" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H111" t="n">
         <v>4781</v>
@@ -4370,6 +4718,9 @@
       </c>
       <c r="J111" t="n">
         <v>0.62111801242236</v>
+      </c>
+      <c r="K111" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="112">
@@ -4377,22 +4728,22 @@
         <v>48</v>
       </c>
       <c r="B112" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D112" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="E112" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G112" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H112" t="n">
         <v>2</v>
@@ -4402,6 +4753,9 @@
       </c>
       <c r="J112" t="n">
         <v>0.62111801242236</v>
+      </c>
+      <c r="K112" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="113">
@@ -4409,22 +4763,22 @@
         <v>49</v>
       </c>
       <c r="B113" t="s">
+        <v>39</v>
+      </c>
+      <c r="C113" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" t="s">
+        <v>152</v>
+      </c>
+      <c r="E113" t="s">
+        <v>101</v>
+      </c>
+      <c r="F113" t="s">
+        <v>15</v>
+      </c>
+      <c r="G113" t="s">
         <v>31</v>
-      </c>
-      <c r="C113" t="s">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s">
-        <v>137</v>
-      </c>
-      <c r="E113" t="s">
-        <v>87</v>
-      </c>
-      <c r="F113" t="s">
-        <v>14</v>
-      </c>
-      <c r="G113" t="s">
-        <v>26</v>
       </c>
       <c r="H113" t="n">
         <v>1830</v>
@@ -4434,6 +4788,9 @@
       </c>
       <c r="J113" t="n">
         <v>0.134589502018843</v>
+      </c>
+      <c r="K113" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="114">
@@ -4441,22 +4798,22 @@
         <v>49</v>
       </c>
       <c r="B114" t="s">
+        <v>39</v>
+      </c>
+      <c r="C114" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" t="s">
+        <v>153</v>
+      </c>
+      <c r="E114" t="s">
+        <v>101</v>
+      </c>
+      <c r="F114" t="s">
+        <v>15</v>
+      </c>
+      <c r="G114" t="s">
         <v>31</v>
-      </c>
-      <c r="C114" t="s">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s">
-        <v>138</v>
-      </c>
-      <c r="E114" t="s">
-        <v>87</v>
-      </c>
-      <c r="F114" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" t="s">
-        <v>26</v>
       </c>
       <c r="H114" t="n">
         <v>1</v>
@@ -4466,6 +4823,9 @@
       </c>
       <c r="J114" t="n">
         <v>0.134589502018843</v>
+      </c>
+      <c r="K114" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="115">
@@ -4473,22 +4833,22 @@
         <v>50</v>
       </c>
       <c r="B115" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C115" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D115" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="E115" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F115" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G115" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="H115" t="n">
         <v>2</v>
@@ -4499,28 +4859,29 @@
       <c r="J115" t="n">
         <v>0.0256904303147078</v>
       </c>
+      <c r="K115"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D116" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="E116" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="F116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G116" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H116" t="n">
         <v>1122</v>
@@ -4530,6 +4891,9 @@
       </c>
       <c r="J116" t="n">
         <v>1.28205128205128</v>
+      </c>
+      <c r="K116" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="117">
@@ -4537,22 +4901,22 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D117" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="E117" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="F117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G117" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H117" t="n">
         <v>1298</v>
@@ -4562,6 +4926,9 @@
       </c>
       <c r="J117" t="n">
         <v>2.27272727272727</v>
+      </c>
+      <c r="K117" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="118">
@@ -4569,22 +4936,22 @@
         <v>51</v>
       </c>
       <c r="B118" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D118" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="E118" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="F118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H118" t="n">
         <v>8067</v>
@@ -4594,6 +4961,9 @@
       </c>
       <c r="J118" t="n">
         <v>4.54545454545455</v>
+      </c>
+      <c r="K118" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="119">
@@ -4601,22 +4971,22 @@
         <v>52</v>
       </c>
       <c r="B119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C119" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D119" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="E119" t="s">
+        <v>76</v>
+      </c>
+      <c r="F119" t="s">
+        <v>62</v>
+      </c>
+      <c r="G119" t="s">
         <v>63</v>
-      </c>
-      <c r="F119" t="s">
-        <v>50</v>
-      </c>
-      <c r="G119" t="s">
-        <v>51</v>
       </c>
       <c r="H119" t="n">
         <v>4</v>
@@ -4627,28 +4997,29 @@
       <c r="J119" t="n">
         <v>0.0745434215430488</v>
       </c>
+      <c r="K119"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
         <v>52</v>
       </c>
       <c r="B120" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C120" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D120" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="E120" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="F120" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G120" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="H120" t="n">
         <v>8</v>
@@ -4659,28 +5030,29 @@
       <c r="J120" t="n">
         <v>0.0874890638670166</v>
       </c>
+      <c r="K120"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
         <v>53</v>
       </c>
       <c r="B121" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D121" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="E121" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="F121" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G121" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H121" t="n">
         <v>2</v>
@@ -4690,6 +5062,9 @@
       </c>
       <c r="J121" t="n">
         <v>0.403225806451613</v>
+      </c>
+      <c r="K121" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="122">
@@ -4697,22 +5072,22 @@
         <v>53</v>
       </c>
       <c r="B122" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D122" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="E122" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G122" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H122" t="n">
         <v>785</v>
@@ -4722,6 +5097,9 @@
       </c>
       <c r="J122" t="n">
         <v>0.465116279069767</v>
+      </c>
+      <c r="K122" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="123">
@@ -4729,22 +5107,22 @@
         <v>54</v>
       </c>
       <c r="B123" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D123" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="E123" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="F123" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G123" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H123" t="n">
         <v>1186</v>
@@ -4754,6 +5132,9 @@
       </c>
       <c r="J123" t="n">
         <v>1.12359550561798</v>
+      </c>
+      <c r="K123" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="124">
@@ -4761,22 +5142,22 @@
         <v>54</v>
       </c>
       <c r="B124" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D124" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="E124" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="F124" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G124" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H124" t="n">
         <v>1</v>
@@ -4786,6 +5167,9 @@
       </c>
       <c r="J124" t="n">
         <v>0.561797752808989</v>
+      </c>
+      <c r="K124" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="125">
@@ -4793,22 +5177,22 @@
         <v>55</v>
       </c>
       <c r="B125" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C125" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D125" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="E125" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F125" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G125" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="H125" t="n">
         <v>2</v>
@@ -4819,28 +5203,29 @@
       <c r="J125" t="n">
         <v>0.0256904303147078</v>
       </c>
+      <c r="K125"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
         <v>55</v>
       </c>
       <c r="B126" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D126" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="E126" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="F126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G126" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H126" t="n">
         <v>99</v>
@@ -4850,6 +5235,9 @@
       </c>
       <c r="J126" t="n">
         <v>0.21505376344086</v>
+      </c>
+      <c r="K126" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="127">
@@ -4857,22 +5245,22 @@
         <v>56</v>
       </c>
       <c r="B127" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D127" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="E127" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F127" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G127" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H127" t="n">
         <v>1962</v>
@@ -4882,6 +5270,9 @@
       </c>
       <c r="J127" t="n">
         <v>0.930232558139535</v>
+      </c>
+      <c r="K127" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="128">
@@ -4889,22 +5280,22 @@
         <v>56</v>
       </c>
       <c r="B128" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D128" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="E128" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="F128" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H128" t="n">
         <v>3858</v>
@@ -4914,6 +5305,9 @@
       </c>
       <c r="J128" t="n">
         <v>1.40845070422535</v>
+      </c>
+      <c r="K128" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="129">
@@ -4921,22 +5315,22 @@
         <v>57</v>
       </c>
       <c r="B129" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D129" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="E129" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="F129" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G129" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H129" t="n">
         <v>1</v>
@@ -4946,6 +5340,9 @@
       </c>
       <c r="J129" t="n">
         <v>0.218340611353712</v>
+      </c>
+      <c r="K129" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="130">
@@ -4953,22 +5350,22 @@
         <v>57</v>
       </c>
       <c r="B130" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D130" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="E130" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="F130" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G130" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H130" t="n">
         <v>1307</v>
@@ -4978,6 +5375,9 @@
       </c>
       <c r="J130" t="n">
         <v>0.218340611353712</v>
+      </c>
+      <c r="K130" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="131">
@@ -4985,22 +5385,22 @@
         <v>58</v>
       </c>
       <c r="B131" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D131" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="E131" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F131" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G131" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H131" t="n">
         <v>4111</v>
@@ -5010,6 +5410,9 @@
       </c>
       <c r="J131" t="n">
         <v>0.91743119266055</v>
+      </c>
+      <c r="K131" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="132">
@@ -5017,22 +5420,22 @@
         <v>58</v>
       </c>
       <c r="B132" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C132" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D132" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="E132" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F132" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G132" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="H132" t="n">
         <v>1</v>
@@ -5043,28 +5446,29 @@
       <c r="J132" t="n">
         <v>0.0128452151573539</v>
       </c>
+      <c r="K132"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
         <v>59</v>
       </c>
       <c r="B133" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D133" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="E133" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F133" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G133" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H133" t="n">
         <v>1</v>
@@ -5074,6 +5478,9 @@
       </c>
       <c r="J133" t="n">
         <v>0.458715596330275</v>
+      </c>
+      <c r="K133" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="134">
@@ -5081,22 +5488,22 @@
         <v>59</v>
       </c>
       <c r="B134" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D134" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="E134" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F134" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G134" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H134" t="n">
         <v>1</v>
@@ -5106,6 +5513,9 @@
       </c>
       <c r="J134" t="n">
         <v>0.290697674418605</v>
+      </c>
+      <c r="K134" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="135">
@@ -5113,22 +5523,22 @@
         <v>60</v>
       </c>
       <c r="B135" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D135" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="E135" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F135" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G135" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H135" t="n">
         <v>1427</v>
@@ -5138,6 +5548,9 @@
       </c>
       <c r="J135" t="n">
         <v>0.91743119266055</v>
+      </c>
+      <c r="K135" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="136">
@@ -5145,22 +5558,22 @@
         <v>60</v>
       </c>
       <c r="B136" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D136" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="E136" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F136" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G136" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H136" t="n">
         <v>1</v>
@@ -5170,6 +5583,9 @@
       </c>
       <c r="J136" t="n">
         <v>0.571428571428571</v>
+      </c>
+      <c r="K136" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
